--- a/SALES REPORT.xlsx
+++ b/SALES REPORT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="My Work Sheet" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <definedName name="NativeTimeline_Order_Date">#N/A</definedName>
     <definedName name="NativeTimeline_Order_Date1">#N/A</definedName>
     <definedName name="NativeTimeline_Order_Date11">#N/A</definedName>
+    <definedName name="NativeTimeline_Order_Date2">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -36,6 +37,7 @@
         <x15:timelineCacheRef r:id="rId7"/>
         <x15:timelineCacheRef r:id="rId8"/>
         <x15:timelineCacheRef r:id="rId9"/>
+        <x15:timelineCacheRef r:id="rId10"/>
       </x15:timelineCacheRefs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="51">
   <si>
     <t>Order ID</t>
   </si>
@@ -325,73 +327,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="166">
     <dxf>
       <font>
         <name val="Times New Roman"/>
@@ -542,6 +478,686 @@
     <dxf>
       <font>
         <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -838,11 +1454,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="265681936"/>
-        <c:axId val="265695480"/>
+        <c:axId val="331980224"/>
+        <c:axId val="331981400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="265681936"/>
+        <c:axId val="331980224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +1557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265695480"/>
+        <c:crossAx val="331981400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -949,7 +1565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265695480"/>
+        <c:axId val="331981400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265681936"/>
+        <c:crossAx val="331980224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1297,8 +1913,7 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1343,6 +1958,678 @@
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -2486,47 +3773,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -2769,11 +4015,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="300528240"/>
-        <c:axId val="300528632"/>
+        <c:axId val="331981008"/>
+        <c:axId val="331978264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="300528240"/>
+        <c:axId val="331981008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,7 +4116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300528632"/>
+        <c:crossAx val="331978264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2878,7 +4124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300528632"/>
+        <c:axId val="331978264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,7 +4231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300528240"/>
+        <c:crossAx val="331981008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3210,8 +4456,7 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3256,6 +4501,678 @@
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -4463,113 +6380,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Total Profit'!$A$6:$A$22</c:f>
+              <c:f>'Total Profit'!$A$6:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Aaron Smayling</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Anthony Witt</c:v>
+                  <c:v>Craig Carroll</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Craig Carroll</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ed Braxton</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Guy Armstrong</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Harold Dahlen</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ionia McGrath</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Jim Epp</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Karl Brown</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Lela Donovan</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Muhammed Yedwab</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>Sean O'Donnell</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Stuart Calhoun</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sung Shariari</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Sylvia Foulston</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Thea Hendricks</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Profit'!$B$6:$B$22</c:f>
+              <c:f>'Total Profit'!$B$6:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-59.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-52.48</c:v>
+                  <c:v>-25.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-25.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-50.14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532.61</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-888.16199999999992</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-243.60336000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3710.7955000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-112</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>315.51150000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1215.28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>185.21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-40.32099999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>110.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4585,11 +6424,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="365110120"/>
-        <c:axId val="365111688"/>
+        <c:axId val="334810176"/>
+        <c:axId val="334809784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365110120"/>
+        <c:axId val="334810176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4705,7 +6544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365111688"/>
+        <c:crossAx val="334809784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4713,7 +6552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365111688"/>
+        <c:axId val="334809784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4837,7 +6676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365110120"/>
+        <c:crossAx val="334810176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5028,8 +6867,7 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5074,6 +6912,678 @@
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -5920,113 +8430,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Total Profit'!$A$6:$A$22</c:f>
+              <c:f>'Total Profit'!$A$6:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Aaron Smayling</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Anthony Witt</c:v>
+                  <c:v>Craig Carroll</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Craig Carroll</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ed Braxton</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Guy Armstrong</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Harold Dahlen</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ionia McGrath</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Jim Epp</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Karl Brown</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Lela Donovan</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Muhammed Yedwab</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>Sean O'Donnell</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Stuart Calhoun</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sung Shariari</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Sylvia Foulston</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Thea Hendricks</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Profit'!$B$6:$B$22</c:f>
+              <c:f>'Total Profit'!$B$6:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-59.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-52.48</c:v>
+                  <c:v>-25.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-25.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-50.14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532.61</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-888.16199999999992</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-243.60336000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3710.7955000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-112</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>315.51150000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1215.28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>185.21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-40.32099999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>110.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6276,11 +8708,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="435164000"/>
-        <c:axId val="435172624"/>
+        <c:axId val="334804688"/>
+        <c:axId val="334809000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="435164000"/>
+        <c:axId val="334804688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6396,7 +8828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435172624"/>
+        <c:crossAx val="334809000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6404,7 +8836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435172624"/>
+        <c:axId val="334809000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6521,7 +8953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435164000"/>
+        <c:crossAx val="334804688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10532,8 +12964,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Order Date 1"/>
@@ -10545,12 +12977,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Order Date 1"/>
+              <tsle:timeslicer name="Order Date 1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10670,8 +13102,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Order Date 2"/>
@@ -10683,12 +13115,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Order Date 2"/>
+              <tsle:timeslicer name="Order Date 2"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10797,16 +13229,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10823,6 +13255,77 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Order Date 3"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Order Date 3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3771900" y="457200"/>
+              <a:ext cx="3333750" cy="1371600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Timeline: Works in Excel 2013 or higher. Do not move or resize.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11259,7 +13762,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16" rowHeaderCaption="Customers">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16" rowHeaderCaption="Customers">
   <location ref="A5:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -11477,19 +13980,19 @@
     <dataField name="Total Sales" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="53">
+    <format dxfId="165">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="164">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="163">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="162">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="4">
@@ -11501,22 +14004,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="159">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="158">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="157">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="156">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="4">
@@ -11528,17 +14031,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="154">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="153">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="18">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -11553,6 +14056,198 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="15"/>
           </reference>
         </references>
       </pivotArea>
@@ -11585,7 +14280,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="Customers">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="Customers">
   <location ref="A5:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -11803,19 +14498,19 @@
     <dataField name="Total Order Quantity" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="26">
+    <format dxfId="151">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="150">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="149">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="147">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="4">
@@ -11827,22 +14522,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="146">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="145">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="144">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="143">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="142">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="141">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="4">
@@ -11854,17 +14549,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="140">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="139">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="18">
     <chartFormat chart="12" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -11879,6 +14574,198 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="15"/>
           </reference>
         </references>
       </pivotArea>
@@ -11911,8 +14798,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24" rowHeaderCaption="Customers">
-  <location ref="A5:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24" rowHeaderCaption="Customers">
+  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0">
@@ -12064,54 +14951,15 @@
   <rowFields count="1">
     <field x="7"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="4">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
       <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -12129,19 +14977,19 @@
     <dataField name="Total Profit" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="12">
+    <format dxfId="137">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="136">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="135">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="4">
@@ -12153,22 +15001,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="131">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="130">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="129">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="128">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="4">
@@ -12180,17 +15028,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="126">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="125">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="18">
     <chartFormat chart="15" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -12209,15 +15057,207 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="18" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium3" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="23" name="Order Date">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="27" name="Order Date">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
             <customFilter operator="greaterThanOrEqual" val="39814"/>
-            <customFilter operator="lessThanOrEqual" val="41274"/>
+            <customFilter operator="lessThanOrEqual" val="40178"/>
           </customFilters>
         </filterColumn>
       </autoFilter>
@@ -12237,14 +15277,33 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A5:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="1"/>
         <item x="2"/>
@@ -12306,7 +15365,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
         <item x="2"/>
         <item x="0"/>
@@ -12315,7 +15374,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="2"/>
         <item x="1"/>
@@ -12365,19 +15424,19 @@
     <dataField name="Sum of Order Quantity" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="11">
+    <format dxfId="123">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="122">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="121">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="7">
@@ -12392,22 +15451,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="117">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="116">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="115">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="7">
@@ -12422,7 +15481,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -12737,7 +15796,18 @@
     <pivotTable tabId="5" name="PivotTable13"/>
   </pivotTables>
   <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1" filterType="dateBetween">
-    <selection startDate="2009-01-01T00:00:00" endDate="2012-12-31T00:00:00"/>
+    <selection startDate="2009-01-01T00:00:00" endDate="2009-12-31T00:00:00"/>
+    <bounds startDate="2009-01-01T00:00:00" endDate="2013-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelineCaches/timelineCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" name="NativeTimeline_Order_Date2" sourceName="Order Date">
+  <pivotTables>
+    <pivotTable tabId="8" name="PivotTable1"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1" filterType="unknown">
     <bounds startDate="2009-01-01T00:00:00" endDate="2013-01-01T00:00:00"/>
   </state>
 </timelineCacheDefinition>
@@ -12745,19 +15815,25 @@
 
 <file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
 <timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <timeline name="Order Date" cache="NativeTimeline_Order_Date" caption="Order Date" level="0" selectionLevel="0" scrollPosition="2009-01-01T00:00:00"/>
+  <timeline name="Order Date" cache="NativeTimeline_Order_Date" caption="Order Date" level="0" selectionLevel="0" scrollPosition="2009-01-01T00:00:00" style="TimeSlicerStyleLight2"/>
 </timelines>
 </file>
 
 <file path=xl/timelines/timeline2.xml><?xml version="1.0" encoding="utf-8"?>
 <timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <timeline name="Order Date 1" cache="NativeTimeline_Order_Date1" caption="Order Date" level="0" selectionLevel="0" scrollPosition="2009-01-01T00:00:00"/>
+  <timeline name="Order Date 1" cache="NativeTimeline_Order_Date1" caption="Order Date" level="0" selectionLevel="0" scrollPosition="2009-01-01T00:00:00" style="TimeSlicerStyleLight2"/>
 </timelines>
 </file>
 
 <file path=xl/timelines/timeline3.xml><?xml version="1.0" encoding="utf-8"?>
 <timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <timeline name="Order Date 2" cache="NativeTimeline_Order_Date11" caption="Order Date" level="0" selectionLevel="0" scrollPosition="2009-01-01T00:00:00"/>
+  <timeline name="Order Date 2" cache="NativeTimeline_Order_Date11" caption="Order Date" level="0" selectionLevel="0" scrollPosition="2009-01-01T00:00:00" style="TimeSlicerStyleLight2"/>
+</timelines>
+</file>
+
+<file path=xl/timelines/timeline4.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <timeline name="Order Date 3" cache="NativeTimeline_Order_Date2" caption="Order Date" level="2" selectionLevel="2" scrollPosition="2012-06-07T00:00:00" style="TimeSlicerStyleLight2"/>
 </timelines>
 </file>
 
@@ -12768,7 +15844,7 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -14010,8 +17086,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -14065,138 +17141,86 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B7" s="15">
-        <v>-52.48</v>
+        <v>-25.13</v>
       </c>
       <c r="C7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B8" s="15">
-        <v>-25.13</v>
+        <v>315.51150000000001</v>
       </c>
       <c r="C8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B9" s="15">
-        <v>-50.14</v>
+        <v>230.56150000000002</v>
       </c>
       <c r="C9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="15">
-        <v>20.21</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
       <c r="C10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="15">
-        <v>532.61</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
       <c r="C11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="15">
-        <v>20.03</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
       <c r="C12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="15">
-        <v>-888.16199999999992</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
       <c r="C13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="15">
-        <v>-243.60336000000004</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="15">
-        <v>3710.7955000000002</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="15">
-        <v>-112</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15">
-        <v>315.51150000000001</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="15">
-        <v>1215.28</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="15">
-        <v>185.21</v>
-      </c>
+      <c r="A19"/>
+      <c r="B19"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="15">
-        <v>-40.32099999999997</v>
-      </c>
+      <c r="A20"/>
+      <c r="B20"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="15">
-        <v>110.23</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="15">
-        <v>4638.2206399999995</v>
-      </c>
+      <c r="A22"/>
+      <c r="B22"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23"/>
@@ -14275,18 +17299,18 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -14294,7 +17318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -14302,7 +17326,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -14310,7 +17334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -14318,7 +17342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
@@ -14326,7 +17350,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
@@ -14334,7 +17358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -14342,7 +17366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
@@ -14350,7 +17374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>48</v>
       </c>
@@ -14358,7 +17382,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>49</v>
       </c>
@@ -14366,7 +17390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
@@ -14374,7 +17398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>36</v>
       </c>
@@ -14385,5 +17409,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId3"/>
+      </x15:timelineRefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>